--- a/Assignment 1/report/results.xlsx
+++ b/Assignment 1/report/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\intro-to-ai\Assignment 1\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637029C3-79C5-4E74-B9FE-A763FA40D755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55C63C-056F-4800-A8A1-4294AE3D8F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{870146AD-2EE5-4785-8F51-B8C1CB4212A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{870146AD-2EE5-4785-8F51-B8C1CB4212A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PreDJA" sheetId="1" r:id="rId1"/>
+    <sheet name="DJA+Map5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>Agent Type</t>
   </si>
@@ -111,6 +112,27 @@
   </si>
   <si>
     <t>Distilled from Testlog.txt</t>
+  </si>
+  <si>
+    <t>Test Results, distilled from testlog. This'll take a while?</t>
+  </si>
+  <si>
+    <t>DJA</t>
+  </si>
+  <si>
+    <t>Map 5 D</t>
+  </si>
+  <si>
+    <t>Map 5</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Route Complexity</t>
   </si>
 </sst>
 </file>
@@ -177,13 +199,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7BFE52-3EBC-46C9-832A-D579F5C7A619}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="B5:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,4 +1473,798 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C16B5C8-E77F-4E27-A105-BD729EE4B465}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4">
+        <v>33</v>
+      </c>
+      <c r="J12" s="4">
+        <v>33</v>
+      </c>
+      <c r="K12" s="4">
+        <v>36</v>
+      </c>
+      <c r="L12" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4">
+        <v>34</v>
+      </c>
+      <c r="K13" s="4">
+        <v>14</v>
+      </c>
+      <c r="L13" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4">
+        <v>33</v>
+      </c>
+      <c r="G14" s="4">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4">
+        <v>33</v>
+      </c>
+      <c r="J14" s="4">
+        <v>33</v>
+      </c>
+      <c r="K14" s="4">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4">
+        <v>36</v>
+      </c>
+      <c r="H15" s="4">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>33</v>
+      </c>
+      <c r="J15" s="4">
+        <v>33</v>
+      </c>
+      <c r="K15" s="4">
+        <v>28</v>
+      </c>
+      <c r="L15" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4">
+        <v>35</v>
+      </c>
+      <c r="H16" s="4">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
+        <v>34</v>
+      </c>
+      <c r="J16" s="4">
+        <v>34</v>
+      </c>
+      <c r="K16" s="4">
+        <v>38</v>
+      </c>
+      <c r="L16" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>14</v>
+      </c>
+      <c r="I17" s="4">
+        <v>33</v>
+      </c>
+      <c r="J17" s="4">
+        <v>33</v>
+      </c>
+      <c r="K17" s="4">
+        <v>13</v>
+      </c>
+      <c r="L17" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4">
+        <v>32</v>
+      </c>
+      <c r="I18" s="4">
+        <v>33</v>
+      </c>
+      <c r="J18" s="4">
+        <v>33</v>
+      </c>
+      <c r="K18" s="4">
+        <v>24</v>
+      </c>
+      <c r="L18" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>13</v>
+      </c>
+      <c r="L22" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4">
+        <v>14</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <v>13</v>
+      </c>
+      <c r="L23" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4">
+        <v>26</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>14</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
+        <v>15</v>
+      </c>
+      <c r="L24" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4">
+        <v>14</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>13</v>
+      </c>
+      <c r="L25" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4">
+        <v>14</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
+        <v>14</v>
+      </c>
+      <c r="L26" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4">
+        <v>14</v>
+      </c>
+      <c r="H27" s="4">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
+        <v>13</v>
+      </c>
+      <c r="L27" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
+        <v>13</v>
+      </c>
+      <c r="L28" s="4">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C22:J22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:J23">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:J24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:J27">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:J12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:J13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:J14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:J17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:L28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:L28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:F28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D28">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:F28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>